--- a/tk_reserva_de_quadra/Dados.xlsx
+++ b/tk_reserva_de_quadra/Dados.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,6 +960,36 @@
         <v>8</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10/08/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>444555</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>manoel</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9"/>
